--- a/Speaking Random 제작중 폴더/랜덤만들기 Naming.xlsx
+++ b/Speaking Random 제작중 폴더/랜덤만들기 Naming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chu\Desktop\Speaking Random 제작중 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chu\Desktop\programming\clsSpeakingRandomV3\Speaking Random 제작중 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492FE49E-FAFE-463F-9EDA-FF903F462CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D7BF1-E145-4F35-A87F-521905C0B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="709" firstSheet="53" activeTab="69" xr2:uid="{F7C009C3-0958-45A2-A465-77E59CEBBAAF}"/>
+    <workbookView xWindow="13950" yWindow="1680" windowWidth="14670" windowHeight="13680" tabRatio="709" firstSheet="70" activeTab="77" xr2:uid="{F7C009C3-0958-45A2-A465-77E59CEBBAAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="22" r:id="rId1"/>
@@ -83,7 +83,15 @@
     <sheet name="수동태" sheetId="70" r:id="rId68"/>
     <sheet name="부정사" sheetId="71" r:id="rId69"/>
     <sheet name="비교구문" sheetId="72" r:id="rId70"/>
-    <sheet name="1-8" sheetId="4" r:id="rId71"/>
+    <sheet name="관계사" sheetId="73" r:id="rId71"/>
+    <sheet name="가정법" sheetId="74" r:id="rId72"/>
+    <sheet name="의문사" sheetId="75" r:id="rId73"/>
+    <sheet name="일치" sheetId="76" r:id="rId74"/>
+    <sheet name="화법" sheetId="77" r:id="rId75"/>
+    <sheet name="특수구문" sheetId="78" r:id="rId76"/>
+    <sheet name="문장" sheetId="79" r:id="rId77"/>
+    <sheet name="문장2" sheetId="80" r:id="rId78"/>
+    <sheet name="1-8" sheetId="4" r:id="rId79"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$A$23</definedName>
@@ -2138,7 +2146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1248">
   <si>
     <t>물고기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9534,6 +9542,298 @@
   </si>
   <si>
     <t>COMPARATIVE_SUPERATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARATIVE_RULE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARATIVE_IRREGULAR_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARATIVE_IDIOMATIC_EXPRESSION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARATIVE_COMPARISONS_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARATIVE_TO_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVES_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINING_RELATIVE_CLAUSE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_USAGE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_WHO_WHICH_THAT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_THAT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_WHAT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_OMIT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_PRONOUN_WITH_PREP_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_ADVERB_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINING_RELATIVE_CLAUSE_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIVE_ADVERB_ANTECEDENT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOUND_RELATIVE_PRONOUN_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOUND_RELATIVE_PRONOUN_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOUND_RELATIVE_ADVERB_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOUND_RELATIVES_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_PAST_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_PAST_PERFECT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_I_WISH_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_AS_IF_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_MIXED_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_PRESENT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_FUTURE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJUNCTIVE_OTHERS_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_PRONOUN_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_USAGE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_ADVERB_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_HOW_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_ALTERNATIVE_NEGATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG_QUESTION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDIRECT_QUESTION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERROGATIVE_WHAT_HOW_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_ON_NUMBER_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_ON_NUMBER_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_TENSE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_MINDMAP_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_QUOTED_REPORTED_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_ADVERB_PHRASE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_INTERROGATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_IMPERATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEECH_MINDMAP_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_EMPHASIS_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_IT_THAT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_INVERSION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_SO_NEITHER_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_OMIT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SYNTAX_INANIMATES_SUBJECT_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_BASIC_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_BASIC_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_EXTENDED_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_TYPE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCLAMATORY_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCLAMATORY_SOLUTION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_IMPERATIVE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_SUGGESTION_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_ELEMENTS_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_THERE_BE_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_1_2_3_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_4_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_5_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_5_2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENTENCE_PATTERN_5_3K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35995,10 +36295,10 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF28FE6-4C48-4643-BD72-44A2714B5CB7}">
-  <dimension ref="D10:E13"/>
+  <dimension ref="D10:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36029,6 +36329,31 @@
         <v>1174</v>
       </c>
     </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36036,6 +36361,531 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4B9211-FB3D-467C-BF2B-E9D51832322A}">
+  <dimension ref="D5:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1701</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1710</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70F7F0E-E1C3-44FB-A2F7-87CFD14595E7}">
+  <dimension ref="D10:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1801</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813C9ACC-24C0-4557-A10C-CEF0588E3845}">
+  <dimension ref="D10:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1901</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41A8AA-4724-4C1F-87B9-904D8E883BE1}">
+  <dimension ref="D10:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDD501-46BE-4D10-9A30-0C3478D571D2}">
+  <dimension ref="D10:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB023A8-469E-46AF-A1A5-858BC5459C5B}">
+  <dimension ref="D10:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C3A79-5D77-44E1-AAC0-5F1D545AA969}">
+  <dimension ref="D10:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>2401</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE3261D-8827-4FA6-8BAB-F74FE6297C6E}">
+  <dimension ref="D10:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2501</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>2601</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18379FE3-47AC-4DED-BB7F-B9C472D1F49E}">
   <dimension ref="B2:O21"/>
   <sheetViews>
